--- a/public/doc_xls_export/report_absensi_tukin_rekap.xlsx
+++ b/public/doc_xls_export/report_absensi_tukin_rekap.xlsx
@@ -498,7 +498,7 @@
     <row spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c s="12" t="inlineStr">
         <is>
-          <t>Absensi - Tunjangan Kinerja 2013-7</t>
+          <t>Absensi - Tunjangan Kinerja 2016-04</t>
         </is>
       </c>
       <c s="12"/>
@@ -549,7 +549,7 @@
       </c>
       <c s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1205,6 +1205,512 @@
       <c s="10" t="inlineStr">
         <is>
           <t>Teti Rosniawati, S.TP</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Fakhri</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>197712312005012001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Devi Riani</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>198012232005011001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Fahmi Fasah A</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>197210241999032002</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Yustina</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Ferenalia Salsabila</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>197601312000032001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Yanti Ratnasari</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>197906262006042001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>TETI ROSNIAWATI</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Iin Septiana</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>novan</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>199011202015022002</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Nurita Lastri Tampubolon</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>dadi</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>198611252010122002</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Lia Astriana</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>____19651102199303</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>novinar</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Dewi Fatmah</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>yanti kamayanti latifa</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Khumayyah</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>196509262000032001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Efriza</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>0_________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Riski Fatma Hari</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>_____0____________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>wiwin ardianti</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>197712312005012001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>devi riani</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>__________________</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>ovan</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>197308012002121001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>fauzi achmadi</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="9" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>196511021993032001</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Novinar</t>
         </is>
       </c>
       <c s="11" t="inlineStr">
